--- a/emp_price_20180614.xlsx
+++ b/emp_price_20180614.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Celzook\Desktop\emp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FEP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -834,7 +834,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -913,6 +913,9 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -947,15 +950,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>593725</xdr:colOff>
+          <xdr:colOff>590550</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>174625</xdr:rowOff>
+          <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -982,32 +985,21 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
                   </a:solidFill>
-                  <a:prstDash val="solid"/>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
-                  <a:tailEnd type="none" w="med" len="med"/>
+                  <a:tailEnd/>
                 </a14:hiddenLine>
-              </a:ext>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
               </a:ext>
             </a:extLst>
           </xdr:spPr>
         </xdr:sp>
-        <xdr:clientData/>
+        <xdr:clientData fLocksWithSheet="0" fPrintsWithSheet="0"/>
       </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
@@ -1278,10 +1270,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O762"/>
+  <dimension ref="A1:O771"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A731" workbookViewId="0">
-      <selection activeCell="S748" sqref="S748"/>
+    <sheetView tabSelected="1" topLeftCell="A738" workbookViewId="0">
+      <selection activeCell="D754" sqref="D754"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -37098,6 +37090,429 @@
       </c>
       <c r="O762">
         <v>6110</v>
+      </c>
+    </row>
+    <row r="763" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A763" s="1">
+        <v>43265</v>
+      </c>
+      <c r="B763" s="26">
+        <v>11455</v>
+      </c>
+      <c r="C763" s="26">
+        <v>11150</v>
+      </c>
+      <c r="D763" s="26">
+        <v>11810</v>
+      </c>
+      <c r="E763" s="26">
+        <v>26160</v>
+      </c>
+      <c r="F763" s="26">
+        <v>12165</v>
+      </c>
+      <c r="G763" s="26">
+        <v>13070</v>
+      </c>
+      <c r="H763" s="26">
+        <v>13075</v>
+      </c>
+      <c r="I763" s="26">
+        <v>10050</v>
+      </c>
+      <c r="J763" s="26">
+        <v>12740</v>
+      </c>
+      <c r="K763" s="26">
+        <v>9790</v>
+      </c>
+      <c r="L763" s="26">
+        <v>11425</v>
+      </c>
+      <c r="M763" s="26">
+        <v>31145</v>
+      </c>
+      <c r="N763" s="26">
+        <v>16020</v>
+      </c>
+      <c r="O763" s="26">
+        <v>6220</v>
+      </c>
+    </row>
+    <row r="764" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A764" s="1">
+        <v>43266</v>
+      </c>
+      <c r="B764" s="26">
+        <v>11330</v>
+      </c>
+      <c r="C764" s="26">
+        <v>11005</v>
+      </c>
+      <c r="D764" s="26">
+        <v>11715</v>
+      </c>
+      <c r="E764" s="26">
+        <v>25765</v>
+      </c>
+      <c r="F764" s="26">
+        <v>12050</v>
+      </c>
+      <c r="G764" s="26">
+        <v>12975</v>
+      </c>
+      <c r="H764" s="26">
+        <v>12950</v>
+      </c>
+      <c r="I764" s="26">
+        <v>10005</v>
+      </c>
+      <c r="J764" s="26">
+        <v>12590</v>
+      </c>
+      <c r="K764" s="26">
+        <v>9665</v>
+      </c>
+      <c r="L764" s="26">
+        <v>11365</v>
+      </c>
+      <c r="M764" s="26">
+        <v>30990</v>
+      </c>
+      <c r="N764" s="26">
+        <v>15800</v>
+      </c>
+      <c r="O764" s="26">
+        <v>6255</v>
+      </c>
+    </row>
+    <row r="765" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A765" s="1">
+        <v>43269</v>
+      </c>
+      <c r="B765" s="26">
+        <v>11195</v>
+      </c>
+      <c r="C765" s="26">
+        <v>10835</v>
+      </c>
+      <c r="D765" s="26">
+        <v>11580</v>
+      </c>
+      <c r="E765" s="26">
+        <v>24940</v>
+      </c>
+      <c r="F765" s="26">
+        <v>11650</v>
+      </c>
+      <c r="G765" s="26">
+        <v>12715</v>
+      </c>
+      <c r="H765" s="26">
+        <v>13010</v>
+      </c>
+      <c r="I765" s="26">
+        <v>9845</v>
+      </c>
+      <c r="J765" s="26">
+        <v>12250</v>
+      </c>
+      <c r="K765" s="26">
+        <v>9665</v>
+      </c>
+      <c r="L765" s="26">
+        <v>11110</v>
+      </c>
+      <c r="M765" s="26">
+        <v>30620</v>
+      </c>
+      <c r="N765" s="26">
+        <v>15420</v>
+      </c>
+      <c r="O765" s="26">
+        <v>6320</v>
+      </c>
+    </row>
+    <row r="766" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A766" s="1">
+        <v>43270</v>
+      </c>
+      <c r="B766" s="26">
+        <v>11050</v>
+      </c>
+      <c r="C766" s="26">
+        <v>10595</v>
+      </c>
+      <c r="D766" s="26">
+        <v>11405</v>
+      </c>
+      <c r="E766" s="26">
+        <v>24510</v>
+      </c>
+      <c r="F766" s="26">
+        <v>11360</v>
+      </c>
+      <c r="G766" s="26">
+        <v>12480</v>
+      </c>
+      <c r="H766" s="26">
+        <v>12900</v>
+      </c>
+      <c r="I766" s="26">
+        <v>9730</v>
+      </c>
+      <c r="J766" s="26">
+        <v>11990</v>
+      </c>
+      <c r="K766" s="26">
+        <v>9565</v>
+      </c>
+      <c r="L766" s="26">
+        <v>11025</v>
+      </c>
+      <c r="M766" s="26">
+        <v>30225</v>
+      </c>
+      <c r="N766" s="26">
+        <v>15020</v>
+      </c>
+      <c r="O766" s="26">
+        <v>6415</v>
+      </c>
+    </row>
+    <row r="767" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A767" s="1">
+        <v>43271</v>
+      </c>
+      <c r="B767" s="26">
+        <v>11120</v>
+      </c>
+      <c r="C767" s="26">
+        <v>10630</v>
+      </c>
+      <c r="D767" s="26">
+        <v>11545</v>
+      </c>
+      <c r="E767" s="26">
+        <v>25150</v>
+      </c>
+      <c r="F767" s="26">
+        <v>11770</v>
+      </c>
+      <c r="G767" s="26">
+        <v>12685</v>
+      </c>
+      <c r="H767" s="26">
+        <v>12825</v>
+      </c>
+      <c r="I767" s="26">
+        <v>9770</v>
+      </c>
+      <c r="J767" s="26">
+        <v>12325</v>
+      </c>
+      <c r="K767" s="26">
+        <v>9545</v>
+      </c>
+      <c r="L767" s="26">
+        <v>11215</v>
+      </c>
+      <c r="M767" s="26">
+        <v>30440</v>
+      </c>
+      <c r="N767" s="26">
+        <v>15270</v>
+      </c>
+      <c r="O767" s="26">
+        <v>6355</v>
+      </c>
+    </row>
+    <row r="768" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A768" s="1">
+        <v>43272</v>
+      </c>
+      <c r="B768" s="26">
+        <v>10980</v>
+      </c>
+      <c r="C768" s="26">
+        <v>10495</v>
+      </c>
+      <c r="D768" s="26">
+        <v>11410</v>
+      </c>
+      <c r="E768" s="26">
+        <v>25085</v>
+      </c>
+      <c r="F768" s="26">
+        <v>11750</v>
+      </c>
+      <c r="G768" s="26">
+        <v>12535</v>
+      </c>
+      <c r="H768" s="26">
+        <v>12590</v>
+      </c>
+      <c r="I768" s="26">
+        <v>9690</v>
+      </c>
+      <c r="J768" s="26">
+        <v>12105</v>
+      </c>
+      <c r="K768" s="26">
+        <v>9420</v>
+      </c>
+      <c r="L768" s="26">
+        <v>11225</v>
+      </c>
+      <c r="M768" s="26">
+        <v>30180</v>
+      </c>
+      <c r="N768" s="26">
+        <v>14955</v>
+      </c>
+      <c r="O768" s="26">
+        <v>6425</v>
+      </c>
+    </row>
+    <row r="769" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A769" s="1">
+        <v>43273</v>
+      </c>
+      <c r="B769" s="26">
+        <v>11015</v>
+      </c>
+      <c r="C769" s="26">
+        <v>10480</v>
+      </c>
+      <c r="D769" s="26">
+        <v>11470</v>
+      </c>
+      <c r="E769" s="26">
+        <v>24925</v>
+      </c>
+      <c r="F769" s="26">
+        <v>11780</v>
+      </c>
+      <c r="G769" s="26">
+        <v>12620</v>
+      </c>
+      <c r="H769" s="26">
+        <v>12705</v>
+      </c>
+      <c r="I769" s="26">
+        <v>9725</v>
+      </c>
+      <c r="J769" s="26">
+        <v>12155</v>
+      </c>
+      <c r="K769" s="26">
+        <v>9400</v>
+      </c>
+      <c r="L769" s="26">
+        <v>11230</v>
+      </c>
+      <c r="M769" s="26">
+        <v>30410</v>
+      </c>
+      <c r="N769" s="26">
+        <v>15180</v>
+      </c>
+      <c r="O769" s="26">
+        <v>6365</v>
+      </c>
+    </row>
+    <row r="770" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A770" s="1">
+        <v>43276</v>
+      </c>
+      <c r="B770" s="26">
+        <v>11070</v>
+      </c>
+      <c r="C770" s="26">
+        <v>10585</v>
+      </c>
+      <c r="D770" s="26">
+        <v>11440</v>
+      </c>
+      <c r="E770" s="26">
+        <v>25210</v>
+      </c>
+      <c r="F770" s="26">
+        <v>11870</v>
+      </c>
+      <c r="G770" s="26">
+        <v>12590</v>
+      </c>
+      <c r="H770" s="26">
+        <v>12740</v>
+      </c>
+      <c r="I770" s="26">
+        <v>9640</v>
+      </c>
+      <c r="J770" s="26">
+        <v>12170</v>
+      </c>
+      <c r="K770" s="26">
+        <v>9420</v>
+      </c>
+      <c r="L770" s="26">
+        <v>11325</v>
+      </c>
+      <c r="M770" s="26">
+        <v>30395</v>
+      </c>
+      <c r="N770" s="26">
+        <v>15200</v>
+      </c>
+      <c r="O770" s="26">
+        <v>6365</v>
+      </c>
+    </row>
+    <row r="771" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A771" s="1">
+        <v>43277</v>
+      </c>
+      <c r="B771" s="26">
+        <v>11040</v>
+      </c>
+      <c r="C771" s="26">
+        <v>10505</v>
+      </c>
+      <c r="D771" s="26">
+        <v>11490</v>
+      </c>
+      <c r="E771" s="26">
+        <v>24995</v>
+      </c>
+      <c r="F771" s="26">
+        <v>11775</v>
+      </c>
+      <c r="G771" s="26">
+        <v>12635</v>
+      </c>
+      <c r="H771" s="26">
+        <v>12710</v>
+      </c>
+      <c r="I771" s="26">
+        <v>9760</v>
+      </c>
+      <c r="J771" s="26">
+        <v>12115</v>
+      </c>
+      <c r="K771" s="26">
+        <v>9430</v>
+      </c>
+      <c r="L771" s="26">
+        <v>11350</v>
+      </c>
+      <c r="M771" s="26">
+        <v>30360</v>
+      </c>
+      <c r="N771" s="26">
+        <v>15160</v>
+      </c>
+      <c r="O771" s="26">
+        <v>6375</v>
       </c>
     </row>
   </sheetData>
